--- a/data/income_statement/2digits/size/51_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/51_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>51-Air transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>51-Air transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,254 +841,289 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>61372.17656</v>
+        <v>128866.49704</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>113017.9024</v>
+        <v>174244.07321</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>144628.44026</v>
+        <v>206360.02462</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>106078.37022</v>
+        <v>172513.67825</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>144005.4013</v>
+        <v>258491.88966</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>229745.79315</v>
+        <v>342433.34637</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>225877.15165</v>
+        <v>337950.78591</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>186970.24343</v>
+        <v>277819.61719</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>172113.43356</v>
+        <v>293059.54315</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>605449.23239</v>
+        <v>810706.30933</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>863546.1073599999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1036185.33825</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>908787.424</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>45102.10273</v>
+        <v>78141.4332</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>87500.48203</v>
+        <v>124209.64566</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>107667.90411</v>
+        <v>140893.87793</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>61319.79601000001</v>
+        <v>100886.98926</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>81979.44031000001</v>
+        <v>123423.12982</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>79679.11709999999</v>
+        <v>125282.79615</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>114650.90298</v>
+        <v>160824.21287</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>57071.20165</v>
+        <v>95615.20075</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>80677.88637000001</v>
+        <v>141015.9813</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>285447.34609</v>
+        <v>382804.97198</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>397301.37377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>452045.44799</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>431353.884</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15199.17489</v>
+        <v>48614.77796</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>23510.40489</v>
+        <v>46115.78714</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>34368.35215999999</v>
+        <v>60700.49133</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>42436.03473</v>
+        <v>68006.34917</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>59472.9379</v>
+        <v>126917.99193</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>149558.59773</v>
+        <v>213856.13113</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>109023.28765</v>
+        <v>171955.79928</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>127547.90267</v>
+        <v>178427.91078</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>88846.91956000001</v>
+        <v>143160.10933</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>298721.4464</v>
+        <v>390782.67497</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>444594.53862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>561951.12895</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>407629.842</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1070.89894</v>
+        <v>2110.28588</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2007.01548</v>
+        <v>3918.64041</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2592.18399</v>
+        <v>4765.655360000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2322.53948</v>
+        <v>3620.33982</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2553.02309</v>
+        <v>8150.76791</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>508.07832</v>
+        <v>3294.41909</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2202.96102</v>
+        <v>5170.77376</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>2351.139110000001</v>
+        <v>3776.50566</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2588.62763</v>
+        <v>8883.452519999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>21280.4399</v>
+        <v>37118.66238</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>21650.19497</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22188.76131</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>69803.698</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>107.99288</v>
+        <v>1093.64548</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>232.17761</v>
+        <v>415.51069</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>203.45013</v>
+        <v>235.35956</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>50.97948</v>
+        <v>285.78743</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1148.41616</v>
+        <v>1935.43445</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>894.31576</v>
+        <v>1356.38697</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1320.37861</v>
+        <v>3361.93363</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>288.93545</v>
+        <v>550.12504</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1390.11457</v>
+        <v>1851.66693</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2315.04158</v>
+        <v>3218.95398</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4873.5999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9404.117490000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8595.371999999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>104.93409</v>
+        <v>1085.43008</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>232.17761</v>
+        <v>405.98797</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>202.73257</v>
+        <v>225.1711</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>49.35564</v>
+        <v>284.16359</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>56.16312</v>
+        <v>840.9882</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>266.00504</v>
+        <v>417.36988</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>909.2244300000001</v>
+        <v>1829.77935</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>269.67425</v>
+        <v>530.86384</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1373.64536</v>
+        <v>1835.19772</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1095.55963</v>
+        <v>1999.47203</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4163.65491</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>9048.04772</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>8577.958000000001</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3.05879</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>0</v>
+        <v>0.63593</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>0.71756</v>
@@ -1196,13 +1132,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1092.25304</v>
+        <v>1094.44625</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>628.3107199999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>405.49458</v>
+        <v>852.8158599999999</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>0</v>
@@ -1214,22 +1150,27 @@
         <v>342.95409</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>353.87522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5.678</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>0</v>
+        <v>5.15661</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>0</v>
+        <v>8.886790000000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0</v>
+        <v>9.4709</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>1.62384</v>
@@ -1238,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>0</v>
+        <v>310.70637</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5.6596</v>
+        <v>679.33842</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>19.2612</v>
@@ -1255,89 +1196,104 @@
       <c r="M12" s="48" t="n">
         <v>356.06977</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>11.736</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>61264.18368</v>
+        <v>127772.85156</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>112785.72479</v>
+        <v>173828.56252</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>144424.99013</v>
+        <v>206124.66506</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>106027.39074</v>
+        <v>172227.89082</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>142856.98514</v>
+        <v>256556.45521</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>228851.47739</v>
+        <v>341076.9594</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>224556.77304</v>
+        <v>334588.85228</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>186681.30798</v>
+        <v>277269.4921499999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>170723.31899</v>
+        <v>291207.87622</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>603134.1908100001</v>
+        <v>807487.35535</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>858672.50746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1026781.22076</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>900192.052</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>51009.59009000001</v>
+        <v>163663.22814</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>98972.48208</v>
+        <v>184012.3835</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>125330.1851</v>
+        <v>213285.73135</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>94394.31702</v>
+        <v>180736.38379</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>130638.88855</v>
+        <v>268180.58088</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>216717.98732</v>
+        <v>362192.86565</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>216162.23255</v>
+        <v>338318.628</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>175902.65904</v>
+        <v>302167.61522</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>164249.79598</v>
+        <v>312310.62695</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>533962.20722</v>
+        <v>744546.27766</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>776228.8164400001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>996377.3689400001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>866098.294</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>0</v>
+        <v>68.2953</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>494.14449</v>
@@ -1372,92 +1328,107 @@
       <c r="M15" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>4144.04604</v>
+        <v>4024.68962</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>135.7786</v>
+        <v>3061.14009</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>879.51261</v>
+        <v>5006.42847</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1913.22875</v>
+        <v>2344.9097</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>525.08136</v>
+        <v>1761.1095</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2472.88407</v>
+        <v>2469.04143</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5491.54823</v>
+        <v>5473.43399</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1218.50811</v>
+        <v>1230.97021</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>12947.26583</v>
+        <v>12541.3315</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>34342.44412</v>
+        <v>30954.30702</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11576.15995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13691.66641</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>52112.688</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>46865.54405</v>
+        <v>159321.27237</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>96235.79678</v>
+        <v>178350.33671</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>123774.44304</v>
+        <v>207603.07343</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>91477.0742</v>
+        <v>177387.46002</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>129573.89362</v>
+        <v>265880.1286</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>214164.8739</v>
+        <v>355663.73438</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>210254.27649</v>
+        <v>331153.05284</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>174190.00644</v>
+        <v>300442.5005200001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>150647.78833</v>
+        <v>299113.6477</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>498279.88293</v>
+        <v>712263.39481</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>764075.51347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>982410.42172</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>813742.764</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>0</v>
+        <v>317.26615</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>0</v>
@@ -1469,109 +1440,124 @@
         <v>0</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>0.5707899999999999</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>80.22935000000001</v>
+        <v>4060.08984</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>416.40783</v>
+        <v>1623.84587</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>174.40254</v>
+        <v>175.30847</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1339.88017</v>
+        <v>1328.57583</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>577.14302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>275.28081</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>242.842</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>10254.59359</v>
+        <v>-35890.37658</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>13813.24271</v>
+        <v>-10183.82098</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>19094.80503</v>
+        <v>-7161.06629</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>11633.07372</v>
+        <v>-8508.492969999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>12218.09659</v>
+        <v>-11624.12567</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>12133.49007</v>
+        <v>-21115.90625</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>8394.540489999999</v>
+        <v>-3729.77572</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10778.64894</v>
+        <v>-24898.12307</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>6473.52301</v>
+        <v>-21102.75073</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>69171.98359</v>
+        <v>62941.07769</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>82443.69102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>30403.85182</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>34093.758</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>12461.49629</v>
+        <v>40023.85991</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>17466.13646</v>
+        <v>38203.09617</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>20826.61451</v>
+        <v>35506.50072</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>20110.61692</v>
+        <v>49502.07779</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>28569.13488</v>
+        <v>67880.04506</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>15387.29839</v>
+        <v>41856.49217</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>36071.49965</v>
+        <v>63597.92485</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>46440.9599</v>
+        <v>87267.94226</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>33763.7741</v>
+        <v>89176.11645999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>137894.65181</v>
+        <v>153081.28453</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>109525.31486</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>158173.01263</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>162240.371</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1601,211 +1587,241 @@
         <v>0</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>0</v>
+        <v>37.86888</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1312.5667</v>
+        <v>1349.90333</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1799.37832</v>
+        <v>3001.49955</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1172.38501</v>
+        <v>2124.75246</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1431.76336</v>
+        <v>6074.96188</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1543.19673</v>
+        <v>4512.87344</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2204.11111</v>
+        <v>4061.25946</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5236.411990000001</v>
+        <v>7420.38655</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2473.97514</v>
+        <v>7029.93612</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>859.82464</v>
+        <v>11834.94739</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>5040.08945</v>
+        <v>8676.775320000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>9203.255929999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14985.43535</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>10889.004</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>11148.92959</v>
+        <v>38673.95658</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>15662.09009</v>
+        <v>35196.92857</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>19654.2295</v>
+        <v>33381.74826</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>18678.85356</v>
+        <v>43427.11591</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>27025.93815</v>
+        <v>63367.17161999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>13183.18728</v>
+        <v>37795.23271</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>30835.08766</v>
+        <v>56177.5383</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>43966.98476</v>
+        <v>80238.00614</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>32903.94946</v>
+        <v>77341.16906999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>132854.56236</v>
+        <v>144366.64033</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>100322.05893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>143187.57728</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>151351.367</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-2206.9027</v>
+        <v>-75914.23649</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-3652.89375</v>
+        <v>-48386.91715</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1731.80948</v>
+        <v>-42667.56701</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-8477.543200000002</v>
+        <v>-58010.57076</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-16351.03829</v>
+        <v>-79504.17073</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-3253.80832</v>
+        <v>-62972.39842</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-27676.95916</v>
+        <v>-67327.70057</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-35662.31096</v>
+        <v>-112166.06533</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-27290.25109000001</v>
+        <v>-110278.86719</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-68722.66821999999</v>
+        <v>-90140.20684</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-27081.62384</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-127769.16081</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-128146.613</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5095.184969999999</v>
+        <v>58996.55553</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3463.69269</v>
+        <v>29886.84242</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5069.25032</v>
+        <v>17819.72935</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3867.76111</v>
+        <v>30202.3748</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5486.01336</v>
+        <v>38044.7683</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8292.822920000001</v>
+        <v>31819.63789</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>26624.35151</v>
+        <v>57472.29121</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>11244.50473</v>
+        <v>69920.50839999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10624.65626</v>
+        <v>44569.59622000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>114721.50154</v>
+        <v>306827.00276</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>64961.43574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>154763.78528</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>323623.97</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>190.40548</v>
+        <v>2.65689</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>308.4389</v>
+        <v>180.22953</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>351.2636</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>82.619</v>
+        <v>1.84002</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>80.26406</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>497.76884</v>
+        <v>516.49838</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>3372.47928</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>6212.10963</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0</v>
+        <v>238.44421</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14.44198</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4.116</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>16.14608</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>5.995</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>424.81999</v>
+        <v>2080.9319</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>214.552</v>
+        <v>1418.24274</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>428.86058</v>
+        <v>845.2194000000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>632.16664</v>
+        <v>896.29874</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>805.34468</v>
+        <v>1876.56706</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>656.4968200000001</v>
+        <v>2091.96507</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1180.08084</v>
+        <v>5200.519929999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1378.99819</v>
+        <v>2672.90088</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>775.58678</v>
+        <v>6313.183980000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2449.34069</v>
+        <v>6770.40037</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>5241.95595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7413.899560000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>11208.078</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1895,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>79.23332000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>94.833</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1931,115 +1962,130 @@
         <v>1.8434</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0</v>
+        <v>14.50998</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>376.56954</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>63.34975</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>0</v>
+        <v>77.92135</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>0.17468</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0.24304</v>
+        <v>43.70504</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>0</v>
+        <v>522.752</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>2940.644</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>14.19676</v>
+        <v>364.39068</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>32.47394</v>
+        <v>34.21991000000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3.62497</v>
+        <v>2.43448</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>5.645359999999999</v>
+        <v>3.84432</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>9.527340000000001</v>
+        <v>3.91825</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>0.50748</v>
+        <v>1.99948</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>21.88815</v>
+        <v>8.427809999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>24.78213</v>
+        <v>0.4127</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>27.18613</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>67.17466999999999</v>
+        <v>73.27264</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>17.00075</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>201.533</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3481.86626</v>
+        <v>54595.28858</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2818.48103</v>
+        <v>28123.0152</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4238.59664</v>
+        <v>16473.65293</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2201.32591</v>
+        <v>28458.72291</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3996.28394</v>
+        <v>33280.47596</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4094.56532</v>
+        <v>25039.81028</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>21661.21376</v>
+        <v>50379.49473000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>9376.217190000001</v>
+        <v>48783.37169</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>8094.291130000001</v>
+        <v>34779.92217000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>97087.23086</v>
+        <v>280764.52502</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>56221.36811</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>139075.19614</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>291441.494</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>983.89648</v>
+        <v>1953.28748</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>87.90342</v>
+        <v>129.29164</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>46.90453</v>
+        <v>497.92254</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>946.0042</v>
+        <v>827.0988299999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>594.59334</v>
+        <v>2507.23749</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>3043.48446</v>
+        <v>4106.014929999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>334.1955</v>
+        <v>1751.43341</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>464.33254</v>
+        <v>12251.53882</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1676.35668</v>
+        <v>3354.6064</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14215.0172</v>
+        <v>17554.8704</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3401.87761</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>5207.22345</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>20667.921</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3456.13262</v>
+        <v>33340.40846</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3716.5337</v>
+        <v>25421.03061</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8530.76288</v>
+        <v>26026.09287</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2796.30275</v>
+        <v>18405.92224</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>8014.18142</v>
+        <v>72066.74940999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5988.22741</v>
+        <v>47140.67199</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>32304.84105</v>
+        <v>93346.57395999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>12220.71924</v>
+        <v>62527.50524</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>29534.02859</v>
+        <v>36079.06922</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>117739.53762</v>
+        <v>379380.67112</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>70016.38724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>157580.73792</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>348765.685</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>19.84773</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>429.32184</v>
+        <v>447.21018</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>2333.03354</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>321.74508</v>
+        <v>326.83602</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>64.45441000000001</v>
+        <v>79.68841999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12.42427</v>
+        <v>178.59003</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14.237</v>
+        <v>29.76932</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>62.6463</v>
+        <v>64.28673000000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>374.49964</v>
+        <v>397.43259</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9.070440000000001</v>
+        <v>0</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>87.86938000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>67.07458</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>26.285</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>0</v>
+        <v>30.46269</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>0.57686</v>
+        <v>58.47687999999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>0</v>
+        <v>22.98827</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>24.94007</v>
+        <v>100.77858</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>0</v>
+        <v>146.31618</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>599.56346</v>
+        <v>932.60813</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1244.65805</v>
+        <v>1413.46005</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>317.13846</v>
+        <v>498.60546</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>17805.655</v>
+        <v>195.762</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>118.37025</v>
+        <v>2751.22725</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>706.70678</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>469.143</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,22 +2358,22 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>76.18060000000001</v>
+        <v>691.84722</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>7.52617</v>
+        <v>2491.55421</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2.19046</v>
+        <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0</v>
+        <v>0.18573</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>6.64747</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>6.27495</v>
+        <v>6.26624</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0.77801</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0.00919</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>8.851000000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>3436.28433</v>
+        <v>30768.36306</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3166.0496</v>
+        <v>23235.27817</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5947.17086</v>
+        <v>15367.38297</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2404.44723</v>
+        <v>12986.20561</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>6500.60936</v>
+        <v>68138.30656999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4871.231870000001</v>
+        <v>40625.18305</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>29660.87804</v>
+        <v>69419.12689999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>11641.24114</v>
+        <v>34992.76102000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>9985.15668</v>
+        <v>34411.27927000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>117251.98619</v>
+        <v>376115.30089</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>69790.78533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>153251.61366</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>324317.237</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>0.0005600000000000001</v>
+        <v>2521.73498</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>120.5854</v>
+        <v>1680.06538</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>174.37788</v>
+        <v>7610.84087</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>37.6442</v>
+        <v>2500.54782</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1446.92719</v>
+        <v>3702.43824</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>505.00781</v>
+        <v>5404.10505</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1378.42049</v>
+        <v>22477.57022</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>193.41839</v>
+        <v>26965.58579</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1367.93926</v>
+        <v>1073.81735</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>359.5565</v>
+        <v>513.58874</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>137.72334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3555.33371</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>23944.169</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>771.18992</v>
+        <v>20703.45393</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>467.34824</v>
+        <v>15301.99863</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1098.88043</v>
+        <v>24491.93074</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>857.2525899999999</v>
+        <v>6868.29667</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>8044.37873</v>
+        <v>21306.69766</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1991.36201</v>
+        <v>14614.3952</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>11901.13705</v>
+        <v>39889.80999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8552.697769999999</v>
+        <v>10363.50914</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5264.561400000001</v>
+        <v>41986.68858</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>38805.02409</v>
+        <v>116265.10291</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>34681.5337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>99787.06073</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>83772.74400000001</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>771.18992</v>
+        <v>8104.17767</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>467.34824</v>
+        <v>11188.69938</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1098.88043</v>
+        <v>12178.75465</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>857.2525899999999</v>
+        <v>5600.70264</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>6431.0873</v>
+        <v>13305.93753</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1762.3884</v>
+        <v>10208.39206</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>11880.92269</v>
+        <v>29186.14872</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1447.58221</v>
+        <v>6196.682239999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5051.65865</v>
+        <v>34924.52724</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>38246.41355</v>
+        <v>80603.26539</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>34401.37582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>94087.43171</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>79180.993</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>0</v>
+        <v>12599.27626</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>0</v>
+        <v>4113.29925</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>0</v>
+        <v>12313.17609</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>1267.59403</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>1613.29143</v>
+        <v>8000.76013</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>228.97361</v>
+        <v>4406.00314</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>20.21436</v>
+        <v>10703.66127</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>7105.115559999999</v>
+        <v>4166.8269</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>212.90275</v>
+        <v>7062.16134</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>558.61054</v>
+        <v>35661.83752</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>280.15788</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5699.629019999999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4591.751</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1339.04027</v>
+        <v>-70961.54334999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-4373.083</v>
+        <v>-59223.10397</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-6292.20247</v>
+        <v>-75365.86127000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-8263.33743</v>
+        <v>-53082.41487</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-26923.58508</v>
+        <v>-134832.8495</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-2940.57482</v>
+        <v>-92907.82772</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-45258.58575</v>
+        <v>-143091.79331</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-45191.22323999999</v>
+        <v>-115136.57131</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-51464.18482</v>
+        <v>-143775.02877</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-110545.72839</v>
+        <v>-278958.97811</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-66818.10904</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-230373.17418</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-237061.072</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>326.13006</v>
+        <v>6621.57009</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1071.03664</v>
+        <v>15819.10385</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>800.5857199999999</v>
+        <v>14000.97372</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2221.02865</v>
+        <v>14176.05871</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>754.3122</v>
+        <v>10499.02816</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>718.2825800000001</v>
+        <v>12380.79751</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>14779.48569</v>
+        <v>9989.80781</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>31939.31697</v>
+        <v>5105.402349999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9146.19822</v>
+        <v>34687.58812</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>107101.91469</v>
+        <v>13510.46201</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>39402.91128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17063.58459</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>65802.64599999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>120.77746</v>
+        <v>120.70848</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0.35308</v>
+        <v>2.84127</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>27.89602</v>
+        <v>40.04572</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0</v>
+        <v>0.009010000000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0.0708</v>
+        <v>69.56187</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>39.72452</v>
+        <v>37.94326</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11.38121</v>
+        <v>12.34406</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>0</v>
+        <v>206.29623</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>18.97502</v>
+        <v>85.95835</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>5.95488</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>3679.597</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>326.13006</v>
+        <v>6621.57009</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>950.25918</v>
+        <v>15698.39537</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>800.2326400000001</v>
+        <v>13998.13245</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2193.13263</v>
+        <v>14136.01299</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>754.3122</v>
+        <v>10499.01915</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>718.21178</v>
+        <v>12311.23564</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>14739.76117</v>
+        <v>9951.86455</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>31927.93576</v>
+        <v>5093.058289999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9146.19822</v>
+        <v>34481.29189</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>107082.93967</v>
+        <v>13424.50366</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>39396.9564</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17057.62971</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>62123.049</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>548.3538100000001</v>
+        <v>14427.39278</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1313.44687</v>
+        <v>2373.3336</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2542.52525</v>
+        <v>15907.57149</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>935.4850799999999</v>
+        <v>2375.06457</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4859.55053</v>
+        <v>19455.34115</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>7264.29841</v>
+        <v>13327.0459</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>18619.36399</v>
+        <v>38710.0806</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8423.288329999999</v>
+        <v>44852.54099</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2818.02864</v>
+        <v>44193.46290999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>40363.14272</v>
+        <v>65336.32728</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>21764.73574</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>32797.15281</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>41661.59</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1.11646</v>
+        <v>2299.97995</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2.57944</v>
+        <v>0.5690299999999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2e-05</v>
+        <v>13655.31072</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>0</v>
+        <v>635.2075</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2156.69886</v>
+        <v>10769.83061</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2078.2648</v>
+        <v>7700.016360000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1376.99206</v>
+        <v>12266.21289</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>410.6464</v>
+        <v>12323.84032</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>15838.56233</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2903.77147</v>
+        <v>15148.68694</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2011.98821</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>13173.10948</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>25711.983</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>163.4063</v>
+        <v>461.0916</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>83.02352</v>
+        <v>89.48164</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>32.94501</v>
+        <v>218.3115</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>170.88016</v>
+        <v>38.99774</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>22.50548</v>
+        <v>12.22289</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>32.40856</v>
+        <v>282.0544</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>74.89662</v>
+        <v>433.60977</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>39.20891</v>
+        <v>203.62118</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>140.63819</v>
+        <v>23.87423</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>166.01587</v>
+        <v>1829.16254</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>96.64487</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>332.12917</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>178.571</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>383.83105</v>
+        <v>11666.32123</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1227.84391</v>
+        <v>2283.28293</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2509.58022</v>
+        <v>2033.94927</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>764.60492</v>
+        <v>1700.85933</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2680.34619</v>
+        <v>8673.28765</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5153.62505</v>
+        <v>5344.97514</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>17167.47531</v>
+        <v>26010.25794</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7973.433019999999</v>
+        <v>32325.07949</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2677.39045</v>
+        <v>28331.02635</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>37293.35537999999</v>
+        <v>48358.4778</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>19656.10266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>19291.91416</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>15771.036</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1561.26402</v>
+        <v>-78767.36604000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-4615.493229999999</v>
+        <v>-45777.33372</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-8034.142</v>
+        <v>-77272.45904</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-6977.79386</v>
+        <v>-41281.42073000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-31028.82341</v>
+        <v>-143789.16249</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-9486.59065</v>
+        <v>-93854.07610999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-49098.46405</v>
+        <v>-171812.0661</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-21675.1946</v>
+        <v>-154883.70995</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-45136.01524</v>
+        <v>-153280.90356</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-43806.95642</v>
+        <v>-330784.84338</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-49179.9335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-246106.7424</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-212920.016</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>276.76299</v>
+        <v>354.73954</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>187.42606</v>
+        <v>337.59093</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>769.6821199999999</v>
+        <v>744.73441</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>262.46256</v>
+        <v>338.5803</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>298.46334</v>
+        <v>295.10314</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>916.52609</v>
+        <v>1677.83379</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1100.00633</v>
+        <v>577.2093599999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>312.91052</v>
+        <v>5002.99817</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>311.0310899999999</v>
+        <v>290.03866</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2151.65386</v>
+        <v>2852.86043</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>8904.30976</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>7145.176179999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4837.456</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1838.02701</v>
+        <v>-79122.10558</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-4802.91929</v>
+        <v>-46114.92465</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-8803.824119999999</v>
+        <v>-78017.19345000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-7240.25642</v>
+        <v>-41620.00103</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-31327.28675</v>
+        <v>-144084.26563</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10403.11674</v>
+        <v>-95531.9099</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-50198.47038</v>
+        <v>-172389.27546</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-21988.10512</v>
+        <v>-159886.70812</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-45447.04633</v>
+        <v>-153570.94222</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-45958.61027999999</v>
+        <v>-333637.70381</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-58084.24326</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-253251.91858</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-217757.472</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,38 +3194,41 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J59" s="35" t="n">
         <v>56</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="L59" s="35" t="n">
         <v>60</v>
@@ -3064,8 +3236,11 @@
       <c r="M59" s="35" t="n">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>